--- a/card_detail.xlsx
+++ b/card_detail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Account Number</t>
   </si>
@@ -59,7 +59,10 @@
     <t>5085233602032322</t>
   </si>
   <si>
-    <t>C260327524A49121607D2109202115736QP</t>
+    <t>C260327524A49121607D2109202117059QP</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +467,9 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">

--- a/card_detail.xlsx
+++ b/card_detail.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>Account Number</t>
   </si>
@@ -41,9 +42,6 @@
     <t>CVV</t>
   </si>
   <si>
-    <t>5085233602032314</t>
-  </si>
-  <si>
     <t>Transaction Status</t>
   </si>
   <si>
@@ -59,10 +57,43 @@
     <t>5085233602032322</t>
   </si>
   <si>
-    <t>C260327524A49121607D2109202117059QP</t>
+    <t>526</t>
+  </si>
+  <si>
+    <t>C260327524A49121607D250920216043QP</t>
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>C260327524A49121607D250920216171QP</t>
+  </si>
+  <si>
+    <t>C260327524A49121607D250920217452QP</t>
+  </si>
+  <si>
+    <t>C260327524A49121607D2709202117679QP</t>
+  </si>
+  <si>
+    <t>5085233602032371</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>C260327524A49121607D2709202123731QP</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Transaction_No Not Available</t>
+  </si>
+  <si>
+    <t>5085233602032298</t>
+  </si>
+  <si>
+    <t>901</t>
   </si>
 </sst>
 </file>
@@ -400,17 +431,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -436,13 +467,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -453,22 +484,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>526</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="3">
         <v>1349</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -479,20 +510,252 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>111</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="3">
         <v>1349</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1349</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1349</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1349</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1349</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1349</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1349</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1349</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1349</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/card_detail.xlsx
+++ b/card_detail.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Account Number</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>C260327524A49121607D2709202123731QP</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Transaction_No Not Available</t>
   </si>
   <si>
     <t>5085233602032298</t>
@@ -434,7 +428,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,22 +478,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
         <v>1349</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -510,22 +498,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <v>1349</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -536,19 +518,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>1349</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -559,19 +538,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>1349</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -582,19 +558,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
         <v>1349</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/card_detail.xlsx
+++ b/card_detail.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Account Number</t>
   </si>
@@ -84,10 +84,46 @@
     <t>C260327524A49121607D2709202123731QP</t>
   </si>
   <si>
-    <t>5085233602032298</t>
-  </si>
-  <si>
-    <t>901</t>
+    <t>5085233602051710</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>5085233602051652</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>5085233602051660</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>5085233602051686</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>5085233602051819</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>Transaction_No_not_available</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Server Error</t>
   </si>
 </sst>
 </file>
@@ -425,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,16 +514,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3">
-        <v>1349</v>
+        <v>1234</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -498,16 +540,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3">
-        <v>1349</v>
+        <v>1234</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,16 +566,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3">
-        <v>1349</v>
+        <v>1234</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -538,16 +592,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3">
-        <v>1349</v>
+        <v>1234</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,17 +627,17 @@
         <v>20</v>
       </c>
       <c r="F6" s="3">
-        <v>1349</v>
+        <v>1234</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/card_detail.xlsx
+++ b/card_detail.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="data1" sheetId="1" r:id="rId1"/>
+    <sheet name="data2" sheetId="3" r:id="rId2"/>
+    <sheet name="data3" sheetId="4" r:id="rId3"/>
+    <sheet name="data4" sheetId="2" r:id="rId4"/>
+    <sheet name="data5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="23">
   <si>
     <t>Account Number</t>
   </si>
@@ -52,36 +55,6 @@
   </si>
   <si>
     <t>ATM PIN</t>
-  </si>
-  <si>
-    <t>5085233602032322</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>C260327524A49121607D250920216043QP</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>C260327524A49121607D250920216171QP</t>
-  </si>
-  <si>
-    <t>C260327524A49121607D250920217452QP</t>
-  </si>
-  <si>
-    <t>C260327524A49121607D2709202117679QP</t>
-  </si>
-  <si>
-    <t>5085233602032371</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>C260327524A49121607D2709202123731QP</t>
   </si>
   <si>
     <t>5085233602051710</t>
@@ -463,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,22 +487,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>1234</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,22 +513,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <v>1234</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -566,22 +539,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3">
         <v>1234</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,22 +565,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
         <v>1234</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -618,22 +591,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <v>1234</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -647,41 +620,410 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>49121607</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3">
-        <v>1349</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F6" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -692,22 +1034,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3">
-        <v>1349</v>
+        <v>1234</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -718,22 +1060,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>1349</v>
+        <v>1234</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -744,22 +1086,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="3">
-        <v>1349</v>
+        <v>1234</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -770,22 +1112,229 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
-        <v>1349</v>
+        <v>1234</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>49121607</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
